--- a/Ind_Customer_Day.xlsx
+++ b/Ind_Customer_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>An Individual Customer's usage on 2023-02-07</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>An Individual Customer's usage on 2023-04-10</t>
   </si>
   <si>
     <t>Time</t>
@@ -53,18 +53,6 @@
   </si>
   <si>
     <t>09:00:00</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
   </si>
 </sst>
 </file>
@@ -410,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -460,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0119966676</v>
+        <v>0.0009997223000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -468,7 +456,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0010033324</v>
+        <v>2.777E-07</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,38 +497,6 @@
       </c>
       <c r="B12">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/Ind_Customer_Day.xlsx
+++ b/Ind_Customer_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>An Individual Customer's usage on 2023-04-10</t>
+    <t>An Individual Customer's usage on 2025-03-03</t>
   </si>
   <si>
     <t>Time</t>
@@ -29,30 +29,6 @@
   </si>
   <si>
     <t>01:00:00</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>03:00:00</t>
-  </si>
-  <si>
-    <t>04:00:00</t>
-  </si>
-  <si>
-    <t>05:00:00</t>
-  </si>
-  <si>
-    <t>06:00:00</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
   </si>
 </sst>
 </file>
@@ -398,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,71 +408,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.0009997223000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2.777E-07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
